--- a/甲状腺超声数据集测试结果.xlsx
+++ b/甲状腺超声数据集测试结果.xlsx
@@ -686,9 +686,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1013,7 +1016,7 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1039,10 +1042,10 @@
         <v>5</v>
       </c>
       <c r="H1" s="1"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
@@ -1058,7 +1061,7 @@
       <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="G2" s="1">
@@ -1074,7 +1077,7 @@
       <c r="E3" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="4" t="s">
         <v>10</v>
       </c>
       <c r="G3" s="1">
@@ -1090,7 +1093,7 @@
       <c r="E4" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="1">
@@ -1106,7 +1109,7 @@
       <c r="E5" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="4" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="1">
@@ -1122,7 +1125,7 @@
       <c r="E6" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="4" t="s">
         <v>9</v>
       </c>
       <c r="G6" s="1">
@@ -1138,7 +1141,7 @@
       <c r="E7" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="4" t="s">
         <v>10</v>
       </c>
       <c r="G7" s="1">
@@ -1154,7 +1157,7 @@
       <c r="E8" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G8" s="1">
@@ -1162,7 +1165,7 @@
       </c>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:8">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -1170,15 +1173,19 @@
       <c r="E9" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="4" t="s">
         <v>12</v>
       </c>
+      <c r="G9" s="2">
+        <v>0.7488</v>
+      </c>
+      <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="2"/>
+      <c r="A10" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="13">
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="G2:H2"/>
@@ -1188,6 +1195,7 @@
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
     <mergeCell ref="A2:A9"/>
     <mergeCell ref="B2:B9"/>
     <mergeCell ref="C2:D9"/>

--- a/甲状腺超声数据集测试结果.xlsx
+++ b/甲状腺超声数据集测试结果.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17820"/>
+    <workbookView windowWidth="23040" windowHeight="9180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
   <si>
     <t>数据集</t>
   </si>
@@ -71,17 +71,21 @@
   </si>
   <si>
     <t>Vit_b</t>
+  </si>
+  <si>
+    <t>SAMUU(没有点提示)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.0000_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -686,7 +690,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -694,10 +698,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
@@ -1016,10 +1023,13 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="44.3333333333333" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
@@ -1042,10 +1052,10 @@
         <v>5</v>
       </c>
       <c r="H1" s="1"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
@@ -1055,13 +1065,13 @@
         <v>7</v>
       </c>
       <c r="C2" s="1">
-        <v>0.8595</v>
+        <v>0.8463</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>9</v>
       </c>
       <c r="G2" s="1">
@@ -1077,7 +1087,7 @@
       <c r="E3" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G3" s="1">
@@ -1093,7 +1103,7 @@
       <c r="E4" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="5" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="1">
@@ -1109,7 +1119,7 @@
       <c r="E5" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="1">
@@ -1125,7 +1135,7 @@
       <c r="E6" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="5" t="s">
         <v>9</v>
       </c>
       <c r="G6" s="1">
@@ -1141,7 +1151,7 @@
       <c r="E7" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G7" s="1">
@@ -1157,7 +1167,7 @@
       <c r="E8" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="5" t="s">
         <v>11</v>
       </c>
       <c r="G8" s="1">
@@ -1173,19 +1183,26 @@
       <c r="E9" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="1">
         <v>0.7488</v>
       </c>
-      <c r="H9" s="2"/>
+      <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="3"/>
+    <row r="10" spans="1:4">
+      <c r="A10" s="2"/>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.503</v>
+      </c>
+      <c r="D10" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="14">
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="G2:H2"/>
@@ -1196,6 +1213,7 @@
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="G8:H8"/>
     <mergeCell ref="G9:H9"/>
+    <mergeCell ref="C10:D10"/>
     <mergeCell ref="A2:A9"/>
     <mergeCell ref="B2:B9"/>
     <mergeCell ref="C2:D9"/>

--- a/甲状腺超声数据集测试结果.xlsx
+++ b/甲状腺超声数据集测试结果.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
   <si>
     <t>数据集</t>
   </si>
@@ -74,6 +74,18 @@
   </si>
   <si>
     <t>SAMUU(没有点提示)</t>
+  </si>
+  <si>
+    <t>SAMUS(backbone：SAM）+APG1（自己写的）</t>
+  </si>
+  <si>
+    <t>SAMUS(backbone：SAM）+APG2（复现论文的）</t>
+  </si>
+  <si>
+    <t>SAMUS(backbone：MedSAM）+APG1（自己写的）</t>
+  </si>
+  <si>
+    <t>SAMUS(backbone：MedSAM）+APG2（复现论文的）</t>
   </si>
 </sst>
 </file>
@@ -690,7 +702,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -705,6 +717,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
@@ -1020,10 +1038,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1071,7 +1089,7 @@
       <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="7" t="s">
         <v>9</v>
       </c>
       <c r="G2" s="1">
@@ -1087,7 +1105,7 @@
       <c r="E3" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G3" s="1">
@@ -1103,7 +1121,7 @@
       <c r="E4" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="1">
@@ -1119,7 +1137,7 @@
       <c r="E5" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="1">
@@ -1135,7 +1153,7 @@
       <c r="E6" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="7" t="s">
         <v>9</v>
       </c>
       <c r="G6" s="1">
@@ -1151,7 +1169,7 @@
       <c r="E7" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G7" s="1">
@@ -1167,7 +1185,7 @@
       <c r="E8" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G8" s="1">
@@ -1183,7 +1201,7 @@
       <c r="E9" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G9" s="1">
@@ -1201,8 +1219,40 @@
       </c>
       <c r="D10" s="4"/>
     </row>
+    <row r="11" spans="2:4">
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="5">
+        <v>0.81</v>
+      </c>
+      <c r="D11" s="6"/>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="6">
+        <v>0.8106</v>
+      </c>
+      <c r="D12" s="6"/>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+    </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="18">
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="G2:H2"/>
@@ -1214,6 +1264,10 @@
     <mergeCell ref="G8:H8"/>
     <mergeCell ref="G9:H9"/>
     <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
     <mergeCell ref="A2:A9"/>
     <mergeCell ref="B2:B9"/>
     <mergeCell ref="C2:D9"/>

--- a/甲状腺超声数据集测试结果.xlsx
+++ b/甲状腺超声数据集测试结果.xlsx
@@ -702,7 +702,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -719,9 +719,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
@@ -1041,7 +1038,7 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1089,7 +1086,7 @@
       <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>9</v>
       </c>
       <c r="G2" s="1">
@@ -1105,7 +1102,7 @@
       <c r="E3" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G3" s="1">
@@ -1121,7 +1118,7 @@
       <c r="E4" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="1">
@@ -1137,7 +1134,7 @@
       <c r="E5" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="1">
@@ -1153,7 +1150,7 @@
       <c r="E6" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="6" t="s">
         <v>9</v>
       </c>
       <c r="G6" s="1">
@@ -1169,7 +1166,7 @@
       <c r="E7" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G7" s="1">
@@ -1185,7 +1182,7 @@
       <c r="E8" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G8" s="1">
@@ -1201,7 +1198,7 @@
       <c r="E9" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G9" s="1">
@@ -1224,32 +1221,32 @@
         <v>15</v>
       </c>
       <c r="C11" s="5">
-        <v>0.81</v>
-      </c>
-      <c r="D11" s="6"/>
+        <v>0.8156</v>
+      </c>
+      <c r="D11" s="1"/>
     </row>
     <row r="12" spans="2:4">
       <c r="B12" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="1">
         <v>0.8106</v>
       </c>
-      <c r="D12" s="6"/>
+      <c r="D12" s="1"/>
     </row>
     <row r="13" spans="2:4">
       <c r="B13" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
     </row>
     <row r="14" spans="2:4">
       <c r="B14" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="18">

--- a/甲状腺超声数据集测试结果.xlsx
+++ b/甲状腺超声数据集测试结果.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9180"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1038,10 +1038,10 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="44.3333333333333" customWidth="1"/>
   </cols>
@@ -1238,14 +1238,18 @@
       <c r="B13" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="1"/>
+      <c r="C13" s="1">
+        <v>0.8121834371</v>
+      </c>
       <c r="D13" s="1"/>
     </row>
     <row r="14" spans="2:4">
       <c r="B14" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="1"/>
+      <c r="C14" s="1">
+        <v>0.8051577181</v>
+      </c>
       <c r="D14" s="1"/>
     </row>
   </sheetData>
@@ -1284,7 +1288,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1301,7 +1305,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/甲状腺超声数据集测试结果.xlsx
+++ b/甲状腺超声数据集测试结果.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowHeight="17820"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="20">
   <si>
     <t>数据集</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>SAMUS(backbone：MedSAM）+APG2（复现论文的）</t>
+  </si>
+  <si>
+    <t>KTD</t>
   </si>
 </sst>
 </file>
@@ -1035,13 +1038,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="44.3333333333333" customWidth="1"/>
   </cols>
@@ -1252,8 +1255,62 @@
       </c>
       <c r="D14" s="1"/>
     </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.8888</v>
+      </c>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="21">
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="G2:H2"/>
@@ -1270,8 +1327,11 @@
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="A2:A9"/>
+    <mergeCell ref="A16:A23"/>
     <mergeCell ref="B2:B9"/>
+    <mergeCell ref="B16:B23"/>
     <mergeCell ref="C2:D9"/>
+    <mergeCell ref="C16:D23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1288,7 +1348,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1305,7 +1365,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/甲状腺超声数据集测试结果.xlsx
+++ b/甲状腺超声数据集测试结果.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17820"/>
+    <workbookView windowWidth="23040" windowHeight="9180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="23">
   <si>
     <t>数据集</t>
   </si>
@@ -88,7 +88,16 @@
     <t>SAMUS(backbone：MedSAM）+APG2（复现论文的）</t>
   </si>
   <si>
-    <t>KTD</t>
+    <t>KTD（（534*3）开源的肾源数据集+（15*3）张医院提供的数据）</t>
+  </si>
+  <si>
+    <t>0.8888（534张开源数据+15张医院数据）</t>
+  </si>
+  <si>
+    <t>0.4963(非正常)</t>
+  </si>
+  <si>
+    <t>0.4836（15张医院数据）</t>
   </si>
 </sst>
 </file>
@@ -705,7 +714,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -722,6 +731,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
@@ -786,6 +798,87 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>441960</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1" descr="209_1-7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9532620" y="1158240"/>
+          <a:ext cx="10058400" cy="2514600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>449580</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2" descr="149_2-8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9540240" y="3977640"/>
+          <a:ext cx="10058400" cy="2514600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1040,13 +1133,15 @@
   <sheetPr/>
   <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
+    <col min="1" max="1" width="28" customWidth="1"/>
     <col min="2" max="2" width="44.3333333333333" customWidth="1"/>
+    <col min="4" max="4" width="15.2222222222222" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -1089,7 +1184,7 @@
       <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="7" t="s">
         <v>9</v>
       </c>
       <c r="G2" s="1">
@@ -1105,7 +1200,7 @@
       <c r="E3" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G3" s="1">
@@ -1121,7 +1216,7 @@
       <c r="E4" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="1">
@@ -1137,7 +1232,7 @@
       <c r="E5" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="1">
@@ -1153,7 +1248,7 @@
       <c r="E6" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="7" t="s">
         <v>9</v>
       </c>
       <c r="G6" s="1">
@@ -1169,7 +1264,7 @@
       <c r="E7" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G7" s="1">
@@ -1185,7 +1280,7 @@
       <c r="E8" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G8" s="1">
@@ -1201,7 +1296,7 @@
       <c r="E9" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G9" s="1">
@@ -1255,62 +1350,86 @@
       </c>
       <c r="D14" s="1"/>
     </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="1" t="s">
+    <row r="15" spans="5:8">
+      <c r="E15" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="1">
-        <v>0.8888</v>
-      </c>
-      <c r="D16" s="1"/>
+      <c r="C16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16" s="6"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="1"/>
+      <c r="A17" s="4"/>
       <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="1"/>
+      <c r="A18" s="4"/>
       <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="1"/>
+      <c r="A19" s="4"/>
       <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="1"/>
+      <c r="A20" s="4"/>
       <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
+      <c r="C20" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="D20" s="1"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="1"/>
+      <c r="A21" s="4"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="1"/>
+      <c r="A22" s="4"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="1"/>
+      <c r="A23" s="4"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="24">
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="G2:H2"/>
@@ -1326,16 +1445,20 @@
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
     <mergeCell ref="A2:A9"/>
     <mergeCell ref="A16:A23"/>
     <mergeCell ref="B2:B9"/>
     <mergeCell ref="B16:B23"/>
     <mergeCell ref="C2:D9"/>
-    <mergeCell ref="C16:D23"/>
+    <mergeCell ref="C16:D19"/>
+    <mergeCell ref="C20:D23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/甲状腺超声数据集测试结果.xlsx
+++ b/甲状腺超声数据集测试结果.xlsx
@@ -714,7 +714,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -731,9 +731,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
@@ -798,87 +795,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>441960</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1" descr="209_1-7"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9532620" y="1158240"/>
-          <a:ext cx="10058400" cy="2514600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>449580</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2" descr="149_2-8"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9540240" y="3977640"/>
-          <a:ext cx="10058400" cy="2514600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1133,8 +1049,8 @@
   <sheetPr/>
   <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="U3" sqref="U3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1184,7 +1100,7 @@
       <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>9</v>
       </c>
       <c r="G2" s="1">
@@ -1200,7 +1116,7 @@
       <c r="E3" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G3" s="1">
@@ -1216,7 +1132,7 @@
       <c r="E4" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="1">
@@ -1232,7 +1148,7 @@
       <c r="E5" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="1">
@@ -1248,7 +1164,7 @@
       <c r="E6" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="6" t="s">
         <v>9</v>
       </c>
       <c r="G6" s="1">
@@ -1264,7 +1180,7 @@
       <c r="E7" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G7" s="1">
@@ -1280,7 +1196,7 @@
       <c r="E8" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G8" s="1">
@@ -1296,7 +1212,7 @@
       <c r="E9" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G9" s="1">
@@ -1376,13 +1292,13 @@
       <c r="E16" t="s">
         <v>8</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="F16" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="G16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H16" s="6"/>
+      <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="4"/>
@@ -1458,7 +1374,6 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/甲状腺超声数据集测试结果.xlsx
+++ b/甲状腺超声数据集测试结果.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9180"/>
+    <workbookView windowWidth="22188" windowHeight="9180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="27">
   <si>
     <t>数据集</t>
   </si>
@@ -98,6 +98,18 @@
   </si>
   <si>
     <t>0.4836（15张医院数据）</t>
+  </si>
+  <si>
+    <t>TN3K+（15*3）张医院提供的数据</t>
+  </si>
+  <si>
+    <t>0.8549（33张训练集）</t>
+  </si>
+  <si>
+    <t>0.4266（6张验证集）</t>
+  </si>
+  <si>
+    <t>0.5158（6张测试集）</t>
   </si>
 </sst>
 </file>
@@ -714,7 +726,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -731,6 +743,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
@@ -1047,15 +1062,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L23"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="U3" sqref="U3"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="28" customWidth="1"/>
+    <col min="1" max="1" width="33.1759259259259" customWidth="1"/>
     <col min="2" max="2" width="44.3333333333333" customWidth="1"/>
     <col min="4" max="4" width="15.2222222222222" customWidth="1"/>
   </cols>
@@ -1100,7 +1115,7 @@
       <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="7" t="s">
         <v>9</v>
       </c>
       <c r="G2" s="1">
@@ -1116,7 +1131,7 @@
       <c r="E3" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G3" s="1">
@@ -1132,7 +1147,7 @@
       <c r="E4" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="1">
@@ -1148,7 +1163,7 @@
       <c r="E5" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="1">
@@ -1164,7 +1179,7 @@
       <c r="E6" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="7" t="s">
         <v>9</v>
       </c>
       <c r="G6" s="1">
@@ -1180,7 +1195,7 @@
       <c r="E7" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G7" s="1">
@@ -1196,7 +1211,7 @@
       <c r="E8" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G8" s="1">
@@ -1212,7 +1227,7 @@
       <c r="E9" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G9" s="1">
@@ -1292,7 +1307,7 @@
       <c r="E16" t="s">
         <v>8</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="1" t="s">
@@ -1344,8 +1359,51 @@
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
     </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="6"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="6"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" s="6"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="6"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" s="6"/>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" s="1"/>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" s="1"/>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" s="1"/>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" s="1"/>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="29">
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="G2:H2"/>
@@ -1363,10 +1421,15 @@
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="G15:H15"/>
     <mergeCell ref="G16:H16"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
     <mergeCell ref="A2:A9"/>
     <mergeCell ref="A16:A23"/>
+    <mergeCell ref="A24:A26"/>
     <mergeCell ref="B2:B9"/>
     <mergeCell ref="B16:B23"/>
+    <mergeCell ref="B24:B26"/>
     <mergeCell ref="C2:D9"/>
     <mergeCell ref="C16:D19"/>
     <mergeCell ref="C20:D23"/>

--- a/甲状腺超声数据集测试结果.xlsx
+++ b/甲状腺超声数据集测试结果.xlsx
@@ -726,7 +726,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -743,9 +743,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
@@ -1064,8 +1061,8 @@
   <sheetPr/>
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1115,7 +1112,7 @@
       <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>9</v>
       </c>
       <c r="G2" s="1">
@@ -1131,7 +1128,7 @@
       <c r="E3" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G3" s="1">
@@ -1147,7 +1144,7 @@
       <c r="E4" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="1">
@@ -1163,7 +1160,7 @@
       <c r="E5" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="1">
@@ -1179,7 +1176,7 @@
       <c r="E6" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="6" t="s">
         <v>9</v>
       </c>
       <c r="G6" s="1">
@@ -1195,7 +1192,7 @@
       <c r="E7" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G7" s="1">
@@ -1211,7 +1208,7 @@
       <c r="E8" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G8" s="1">
@@ -1227,7 +1224,7 @@
       <c r="E9" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G9" s="1">
@@ -1307,7 +1304,7 @@
       <c r="E16" t="s">
         <v>8</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="F16" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="1" t="s">
@@ -1360,32 +1357,32 @@
       <c r="D23" s="1"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D24" s="6"/>
+      <c r="D24" s="1"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="6"/>
+      <c r="A25" s="1"/>
       <c r="B25" s="1"/>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D25" s="6"/>
+      <c r="D25" s="1"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="6"/>
+      <c r="A26" s="1"/>
       <c r="B26" s="1"/>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D26" s="6"/>
+      <c r="D26" s="1"/>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" s="1"/>
